--- a/src/assets/files/Plantilla para el cargue de asistencias.xlsx
+++ b/src/assets/files/Plantilla para el cargue de asistencias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mri\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sala Lectura.DESKTOP-C89RAIM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2580C5BF-5A0D-4F8B-897D-194B9A2E3663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D6EDCE-DB9D-4941-86C9-C1804B4C124C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15150" yWindow="1830" windowWidth="34305" windowHeight="18315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>IES</t>
   </si>
@@ -249,13 +249,79 @@
   </si>
   <si>
     <t>Institucion Educativa Distrital De Barranquilla Codeba</t>
+  </si>
+  <si>
+    <t>Grupo 1</t>
+  </si>
+  <si>
+    <t>Grupo 10</t>
+  </si>
+  <si>
+    <t>Grupo 11</t>
+  </si>
+  <si>
+    <t>Grupo 12</t>
+  </si>
+  <si>
+    <t>Grupo 2</t>
+  </si>
+  <si>
+    <t>Grupo 3</t>
+  </si>
+  <si>
+    <t>Grupo 4</t>
+  </si>
+  <si>
+    <t>Grupo 5</t>
+  </si>
+  <si>
+    <t>Grupo 6</t>
+  </si>
+  <si>
+    <t>Grupo 7</t>
+  </si>
+  <si>
+    <t>Grupo 8</t>
+  </si>
+  <si>
+    <t>Grupo 9</t>
+  </si>
+  <si>
+    <t>LITORAL</t>
+  </si>
+  <si>
+    <t>Institucion Educativa Distrital Sofia Camargo De Lleras</t>
+  </si>
+  <si>
+    <t>USC-1</t>
+  </si>
+  <si>
+    <t>USC-2</t>
+  </si>
+  <si>
+    <t>USC-3</t>
+  </si>
+  <si>
+    <t>USC-4</t>
+  </si>
+  <si>
+    <t>USC-5</t>
+  </si>
+  <si>
+    <t>UC-12</t>
+  </si>
+  <si>
+    <t>UC-18</t>
+  </si>
+  <si>
+    <t>UC-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,14 +341,26 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="72"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,8 +373,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -319,27 +403,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,21 +777,24 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="11"/>
+    <col min="2" max="2" width="33.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="11"/>
+    <col min="8" max="8" width="11.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -675,592 +820,592 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="2"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="10">
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="10">
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="10">
         <v>34</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="10">
         <v>35</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="10">
         <v>36</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="10">
         <v>37</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="10">
         <v>38</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="10">
         <v>39</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="10">
         <v>40</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="10">
         <v>41</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43" s="10">
         <v>42</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="A44" s="10">
         <v>43</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45" s="10">
         <v>44</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46" s="10">
         <v>45</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="A47" s="10">
         <v>46</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="A48" s="10">
         <v>47</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="A49" s="10">
         <v>48</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="A50" s="10">
         <v>49</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
@@ -1281,27 +1426,27 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>validaciones!$A$3:$A$4</xm:f>
+            <xm:f>validaciones!$A$1:$A$2</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B50</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>validaciones!$C$1:$C$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D50</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
-            <xm:f>validaciones!$B$3:$B$9</xm:f>
+            <xm:f>validaciones!$B$1:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C50</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>validaciones!$C$3:$C$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D50</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B7D6E787-153B-45B7-81D0-84C94D543E7F}">
           <x14:formula1>
-            <xm:f>validaciones!$D$3:$D$45</xm:f>
+            <xm:f>validaciones!$D$1:$D$63</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>E2:E50</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1311,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:E45"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,339 +1468,468 @@
     <col min="2" max="2" width="54.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>53</v>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>54</v>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>56</v>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>57</v>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>58</v>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>59</v>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>60</v>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>61</v>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="7" t="s">
-        <v>25</v>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="7" t="s">
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="7" t="s">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="7" t="s">
-        <v>34</v>
+      <c r="D23" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="7" t="s">
-        <v>35</v>
+      <c r="D24" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="7" t="s">
-        <v>63</v>
+      <c r="D25" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="7" t="s">
-        <v>36</v>
+      <c r="D26" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="7" t="s">
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="7" t="s">
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="7" t="s">
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="7" t="s">
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="7" t="s">
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D33" s="7" t="s">
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="7" t="s">
-        <v>51</v>
+      <c r="D41" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D44" s="7" t="s">
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="8"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D53" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D54" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D55" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D56" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D57" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D58" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D59" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D60" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D61" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D62" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D63" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E3:E45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H1:H67">
+    <sortCondition ref="H29:H67"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="E52:E63"/>
+    <mergeCell ref="E1:E51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/assets/files/Plantilla para el cargue de asistencias.xlsx
+++ b/src/assets/files/Plantilla para el cargue de asistencias.xlsx
@@ -1,160 +1,214 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sala Lectura.DESKTOP-C89RAIM\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D6EDCE-DB9D-4941-86C9-C1804B4C124C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28200" windowHeight="12870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="validaciones" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>IES</t>
   </si>
   <si>
     <t>IED</t>
   </si>
   <si>
+    <t>Programa académico</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
     <t>Identificación</t>
   </si>
   <si>
-    <t>Programa académico</t>
-  </si>
-  <si>
-    <t>Grupo</t>
-  </si>
-  <si>
     <t>fecha</t>
   </si>
   <si>
     <t>asistencencia</t>
   </si>
   <si>
+    <t>Corporacion Universitaria Americana</t>
+  </si>
+  <si>
+    <t>Institucion Educativa Distrital Betsabe Espinosa</t>
+  </si>
+  <si>
+    <t>Tecnica Profesional En Procesos Contables (Pr)</t>
+  </si>
+  <si>
+    <t>A ADM</t>
+  </si>
+  <si>
+    <t>AMERICANA</t>
+  </si>
+  <si>
+    <t>Corporacion Educativa Del Litoral</t>
+  </si>
+  <si>
+    <t>Institucion Educativa Distrital Concentracion Cevillar</t>
+  </si>
+  <si>
+    <t>Tecnica Profesional En Procesos Empresariales (Pr)</t>
+  </si>
+  <si>
+    <t>A CONTABLE</t>
+  </si>
+  <si>
+    <t>Institucion Educativa Distrital De Barranquilla Codeba</t>
+  </si>
+  <si>
+    <t>Tecnica Profesional En Procesos Logísticos Y De Comercio Exterior (Pr)</t>
+  </si>
+  <si>
+    <t>A LOGIST</t>
+  </si>
+  <si>
+    <t>Institucion Educativa Distrital De Barranquilla Maria Cano</t>
+  </si>
+  <si>
+    <t>Tecnica Profesional En Procesos Turisticos Y Hoteleros (Pr)</t>
+  </si>
+  <si>
+    <t>A TURISMO</t>
+  </si>
+  <si>
+    <t>Institucion Educativa Distrital De Barranquilla Rodolfo Llinas</t>
+  </si>
+  <si>
+    <t>Tecnica Profesional De Procesos Administrativos En Salud</t>
+  </si>
+  <si>
+    <t>B ADM</t>
+  </si>
+  <si>
+    <t>Institucion Educativa Distrital De Barranquilla San Gabriel</t>
+  </si>
+  <si>
+    <t>Tecnica Profesional De Programacion Web</t>
+  </si>
+  <si>
+    <t>B CONTABLE</t>
+  </si>
+  <si>
     <t>Institucion Educativa Distrital San Gabriel</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Corporacion Educativa Del Litoral</t>
-  </si>
-  <si>
-    <t>Corporacion Universitaria Americana</t>
-  </si>
-  <si>
-    <t>Tecnica Profesional En Procesos Contables (Pr)</t>
-  </si>
-  <si>
-    <t>Tecnica Profesional En Procesos Empresariales (Pr)</t>
-  </si>
-  <si>
-    <t>Tecnica Profesional En Procesos Logísticos Y De Comercio Exterior (Pr)</t>
-  </si>
-  <si>
-    <t>Tecnica Profesional En Procesos Turisticos Y Hoteleros (Pr)</t>
-  </si>
-  <si>
-    <t>Institucion Educativa Distrital De Barranquilla Maria Cano</t>
-  </si>
-  <si>
-    <t>Institucion Educativa Distrital De Barranquilla Rodolfo Llinas</t>
-  </si>
-  <si>
-    <t>Institucion Educativa Distrital De Barranquilla San Gabriel</t>
-  </si>
-  <si>
-    <t>Tecnica Profesional De Procesos Administrativos En Salud</t>
-  </si>
-  <si>
-    <t>Tecnica Profesional De Programación Web</t>
-  </si>
-  <si>
     <t>Tecnica Profesional En Instalacion Y Configuración De Redes</t>
   </si>
   <si>
+    <t>B LOGIST</t>
+  </si>
+  <si>
+    <t>Institucion Educativa Distrital Sofia Camargo De Lleras</t>
+  </si>
+  <si>
     <t>Tecnica Profesional En Procesos De Marketing Digital</t>
   </si>
   <si>
+    <t>B TURISMO</t>
+  </si>
+  <si>
     <t>Tecnica Profesional En Produccion Publicitaria Digital</t>
   </si>
   <si>
+    <t>C LOGIST</t>
+  </si>
+  <si>
     <t>Tecnica Profesional En Seguridad Y Salud En El Trabajo</t>
   </si>
   <si>
-    <t>Institucion Educativa Distrital Betsabe Espinosa</t>
+    <t>UB-0</t>
   </si>
   <si>
     <t>UB-1</t>
   </si>
   <si>
+    <t>UB-2</t>
+  </si>
+  <si>
+    <t>UB-3</t>
+  </si>
+  <si>
+    <t>UB-4</t>
+  </si>
+  <si>
+    <t>UB-5</t>
+  </si>
+  <si>
+    <t>UB-6</t>
+  </si>
+  <si>
+    <t>UB-7</t>
+  </si>
+  <si>
+    <t>UB-8</t>
+  </si>
+  <si>
+    <t>UB-9</t>
+  </si>
+  <si>
+    <t>UB-10</t>
+  </si>
+  <si>
     <t>UB-11</t>
   </si>
   <si>
     <t>UB-12</t>
   </si>
   <si>
-    <t>UB-2</t>
-  </si>
-  <si>
-    <t>UB-3</t>
-  </si>
-  <si>
-    <t>UB-4</t>
-  </si>
-  <si>
-    <t>UB-5</t>
-  </si>
-  <si>
-    <t>UB-6</t>
-  </si>
-  <si>
-    <t>UB-7</t>
-  </si>
-  <si>
-    <t>UB-8</t>
-  </si>
-  <si>
-    <t>UB-9</t>
+    <t>UC-0</t>
   </si>
   <si>
     <t>UC-1</t>
   </si>
   <si>
+    <t>UC-2</t>
+  </si>
+  <si>
+    <t>UC-3</t>
+  </si>
+  <si>
+    <t>UC-4</t>
+  </si>
+  <si>
+    <t>UC-5</t>
+  </si>
+  <si>
+    <t>UC-6</t>
+  </si>
+  <si>
+    <t>UC-7</t>
+  </si>
+  <si>
+    <t>UC-8</t>
+  </si>
+  <si>
+    <t>UC-9</t>
+  </si>
+  <si>
     <t>UC-10</t>
   </si>
   <si>
     <t>UC-11</t>
   </si>
   <si>
+    <t>UC-12</t>
+  </si>
+  <si>
     <t>UC-13</t>
   </si>
   <si>
@@ -170,64 +224,10 @@
     <t>UC-17</t>
   </si>
   <si>
-    <t>UC-2</t>
-  </si>
-  <si>
-    <t>UC-3</t>
-  </si>
-  <si>
-    <t>UC-4</t>
-  </si>
-  <si>
-    <t>UC-5</t>
-  </si>
-  <si>
-    <t>UC-6</t>
-  </si>
-  <si>
-    <t>UC-7</t>
-  </si>
-  <si>
-    <t>UC-8</t>
-  </si>
-  <si>
-    <t>UC-9</t>
-  </si>
-  <si>
-    <t>A ADM</t>
-  </si>
-  <si>
-    <t>A CONTABLE</t>
-  </si>
-  <si>
-    <t>A LOGIST</t>
-  </si>
-  <si>
-    <t>A TURISMO</t>
-  </si>
-  <si>
-    <t>B ADM</t>
-  </si>
-  <si>
-    <t>B CONTABLE</t>
-  </si>
-  <si>
-    <t>B LOGIST</t>
-  </si>
-  <si>
-    <t>B TURISMO</t>
-  </si>
-  <si>
-    <t>C LOGIST</t>
-  </si>
-  <si>
-    <t>UB-0</t>
-  </si>
-  <si>
-    <t>UB-10</t>
-  </si>
-  <si>
-    <t>UC-0</t>
+    <t>UC-18</t>
+  </si>
+  <si>
+    <t>UC-19</t>
   </si>
   <si>
     <t>US-0</t>
@@ -242,18 +242,51 @@
     <t>US-3</t>
   </si>
   <si>
-    <t>AMERICANA</t>
-  </si>
-  <si>
-    <t>Institucion Educativa Distrital Concentracion Cevillar</t>
-  </si>
-  <si>
-    <t>Institucion Educativa Distrital De Barranquilla Codeba</t>
+    <t>USC-1</t>
+  </si>
+  <si>
+    <t>USC-2</t>
+  </si>
+  <si>
+    <t>USC-3</t>
+  </si>
+  <si>
+    <t>USC-4</t>
+  </si>
+  <si>
+    <t>USC-5</t>
   </si>
   <si>
     <t>Grupo 1</t>
   </si>
   <si>
+    <t>LITORAL</t>
+  </si>
+  <si>
+    <t>Grupo 2</t>
+  </si>
+  <si>
+    <t>Grupo 3</t>
+  </si>
+  <si>
+    <t>Grupo 4</t>
+  </si>
+  <si>
+    <t>Grupo 5</t>
+  </si>
+  <si>
+    <t>Grupo 6</t>
+  </si>
+  <si>
+    <t>Grupo 7</t>
+  </si>
+  <si>
+    <t>Grupo 8</t>
+  </si>
+  <si>
+    <t>Grupo 9</t>
+  </si>
+  <si>
     <t>Grupo 10</t>
   </si>
   <si>
@@ -261,106 +294,209 @@
   </si>
   <si>
     <t>Grupo 12</t>
-  </si>
-  <si>
-    <t>Grupo 2</t>
-  </si>
-  <si>
-    <t>Grupo 3</t>
-  </si>
-  <si>
-    <t>Grupo 4</t>
-  </si>
-  <si>
-    <t>Grupo 5</t>
-  </si>
-  <si>
-    <t>Grupo 6</t>
-  </si>
-  <si>
-    <t>Grupo 7</t>
-  </si>
-  <si>
-    <t>Grupo 8</t>
-  </si>
-  <si>
-    <t>Grupo 9</t>
-  </si>
-  <si>
-    <t>LITORAL</t>
-  </si>
-  <si>
-    <t>Institucion Educativa Distrital Sofia Camargo De Lleras</t>
-  </si>
-  <si>
-    <t>USC-1</t>
-  </si>
-  <si>
-    <t>USC-2</t>
-  </si>
-  <si>
-    <t>USC-3</t>
-  </si>
-  <si>
-    <t>USC-4</t>
-  </si>
-  <si>
-    <t>USC-5</t>
-  </si>
-  <si>
-    <t>UC-12</t>
-  </si>
-  <si>
-    <t>UC-18</t>
-  </si>
-  <si>
-    <t>UC-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="22"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="48"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,8 +515,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -440,52 +762,342 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Título 3" xfId="1" builtinId="18"/>
+    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda" xfId="5" builtinId="4"/>
+    <cellStyle name="Coma" xfId="6" builtinId="3"/>
+    <cellStyle name="Porcentaje" xfId="7" builtinId="5"/>
+    <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21"/>
+    <cellStyle name="Nota" xfId="11" builtinId="10"/>
+    <cellStyle name="Título 2" xfId="12" builtinId="17"/>
+    <cellStyle name="Texto de advertencia" xfId="13" builtinId="11"/>
+    <cellStyle name="Título" xfId="14" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="15" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="16" builtinId="16"/>
+    <cellStyle name="Título 4" xfId="17" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="18" builtinId="20"/>
+    <cellStyle name="Cálculo" xfId="19" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="21" builtinId="24"/>
+    <cellStyle name="Total" xfId="22" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="23" builtinId="26"/>
+    <cellStyle name="40% - Énfasis5" xfId="24" builtinId="47"/>
+    <cellStyle name="Incorrecto" xfId="25" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="26" builtinId="28"/>
+    <cellStyle name="20% - Énfasis5" xfId="27" builtinId="46"/>
+    <cellStyle name="Énfasis1" xfId="28" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="29" builtinId="30"/>
+    <cellStyle name="60% - Énfasis1" xfId="30" builtinId="32"/>
+    <cellStyle name="20% - Énfasis6" xfId="31" builtinId="50"/>
+    <cellStyle name="Énfasis2" xfId="32" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="33" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="34" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="35" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="36" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="37" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="38" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="39" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="42" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="43" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="44" builtinId="45"/>
+    <cellStyle name="60% - Énfasis5" xfId="45" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -503,9 +1115,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -554,7 +1163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -589,7 +1198,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -763,63 +1372,58 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="11"/>
-    <col min="2" max="2" width="33.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="11"/>
-    <col min="8" max="8" width="11.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="11"/>
+    <col min="1" max="1" width="11.4285714285714" style="9"/>
+    <col min="2" max="2" width="33.8571428571429" style="9" customWidth="1"/>
+    <col min="3" max="3" width="54.7142857142857" style="9" customWidth="1"/>
+    <col min="4" max="4" width="63.5714285714286" style="9" customWidth="1"/>
+    <col min="5" max="5" width="23.5714285714286" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.4285714285714" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.4285714285714" style="9"/>
+    <col min="8" max="8" width="11.2857142857143" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="11.4285714285714" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -831,7 +1435,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -843,7 +1447,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -855,7 +1459,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -867,7 +1471,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -879,7 +1483,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -891,7 +1495,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -903,7 +1507,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -915,7 +1519,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -927,7 +1531,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -939,7 +1543,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -951,7 +1555,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -963,7 +1567,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -975,7 +1579,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -987,7 +1591,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -999,7 +1603,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1011,7 +1615,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1023,7 +1627,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1035,7 +1639,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1047,7 +1651,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1059,7 +1663,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1071,7 +1675,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1083,7 +1687,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -1095,7 +1699,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -1107,7 +1711,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -1119,7 +1723,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -1131,7 +1735,7 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -1143,7 +1747,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -1155,7 +1759,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -1167,7 +1771,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -1179,7 +1783,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -1191,7 +1795,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -1203,7 +1807,7 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -1215,7 +1819,7 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -1227,7 +1831,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -1239,7 +1843,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -1251,7 +1855,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -1263,7 +1867,7 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -1275,7 +1879,7 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -1287,7 +1891,7 @@
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -1299,7 +1903,7 @@
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="10">
         <v>41</v>
       </c>
@@ -1311,7 +1915,7 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="10">
         <v>42</v>
       </c>
@@ -1323,7 +1927,7 @@
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="10">
         <v>43</v>
       </c>
@@ -1335,7 +1939,7 @@
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="10">
         <v>44</v>
       </c>
@@ -1347,7 +1951,7 @@
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="10">
         <v>45</v>
       </c>
@@ -1359,7 +1963,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="10">
         <v>46</v>
       </c>
@@ -1371,7 +1975,7 @@
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -1383,7 +1987,7 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -1395,7 +1999,7 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -1411,527 +2015,512 @@
   <conditionalFormatting sqref="F1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR DE FECHA" error="Recuerda que solo puedes ingresar fechas en formato de fecha. Ejemplo:_x000a__x000a_01/01/2022 o 01-01-2022" promptTitle="Fecha en Formato Fecha" prompt="Solo puedes ingresar fechas en formato de fecha. Ejemplo:_x000a__x000a_01/01/2022 o 01-01-2022" sqref="G1:G1048576" xr:uid="{C1468348-96BA-467B-B754-E9B46863C323}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E50">
+      <formula1>validaciones!$D$1:$D$63</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B50">
+      <formula1>validaciones!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C50">
+      <formula1>validaciones!$B$1:$B$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D50">
+      <formula1>validaciones!$C$1:$C$10</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR DE FECHA" error="Recuerda que solo puedes ingresar fechas en formato de fecha. Ejemplo:&#10;&#10;01/01/2022 o 01-01-2022" promptTitle="Fecha en Formato Fecha" prompt="Solo puedes ingresar fechas en formato de fecha. Ejemplo:&#10;&#10;01/01/2022 o 01-01-2022" sqref="G$1:G$1048576">
       <formula1>44562</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{148C0B01-ADEB-44D5-A59B-52BA9093522C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"0,1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>validaciones!$A$1:$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B50</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>validaciones!$C$1:$C$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D50</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>validaciones!$B$1:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C50</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B7D6E787-153B-45B7-81D0-84C94D543E7F}">
-          <x14:formula1>
-            <xm:f>validaciones!$D$1:$D$63</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E50</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="54.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="62.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="28.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="13.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="D44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="4:5">
+      <c r="D47" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="D48" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="4:5">
+      <c r="D51" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5">
+      <c r="D53" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="4:5">
+      <c r="D54" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="5" t="s">
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="4:5">
+      <c r="D56" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="4:5">
+      <c r="D57" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="4:5">
+      <c r="D58" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="4:5">
+      <c r="D59" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="4:5">
+      <c r="D60" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="4:5">
+      <c r="D61" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="5" t="s">
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="D62" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="5" t="s">
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="4:5">
+      <c r="D63" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D44" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D45" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D46" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D47" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D48" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D49" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D50" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D51" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D52" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D53" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D54" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" s="6"/>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D55" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D56" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D57" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D58" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D59" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D60" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D61" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D62" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D63" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E63" s="6"/>
+      <c r="E63" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H1:H67">
+  <sortState ref="H1:H67">
     <sortCondition ref="H29:H67"/>
   </sortState>
   <mergeCells count="2">
+    <mergeCell ref="E1:E51"/>
     <mergeCell ref="E52:E63"/>
-    <mergeCell ref="E1:E51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/assets/files/Plantilla para el cargue de asistencias.xlsx
+++ b/src/assets/files/Plantilla para el cargue de asistencias.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="12870" activeTab="1"/>
+    <workbookView windowWidth="28785" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>#</t>
   </si>
@@ -260,7 +260,7 @@
     <t>Grupo 1</t>
   </si>
   <si>
-    <t>LITORAL</t>
+    <t>Litoral</t>
   </si>
   <si>
     <t>Grupo 2</t>
@@ -294,6 +294,57 @@
   </si>
   <si>
     <t>Grupo 12</t>
+  </si>
+  <si>
+    <t>MARKETING - 3A</t>
+  </si>
+  <si>
+    <t>MARKETING - 3B</t>
+  </si>
+  <si>
+    <t>MARKETING - 3C</t>
+  </si>
+  <si>
+    <t>MARKETING - 4</t>
+  </si>
+  <si>
+    <t>P.A.S - A</t>
+  </si>
+  <si>
+    <t>P.A.S - B</t>
+  </si>
+  <si>
+    <t>P.A.S - C</t>
+  </si>
+  <si>
+    <t>P.A.S - D</t>
+  </si>
+  <si>
+    <t>P.P.D - 4</t>
+  </si>
+  <si>
+    <t>REDES - 4</t>
+  </si>
+  <si>
+    <t>S.S.T - A</t>
+  </si>
+  <si>
+    <t>S.S.T - B</t>
+  </si>
+  <si>
+    <t>S.S.T - C</t>
+  </si>
+  <si>
+    <t>WEB - 3A</t>
+  </si>
+  <si>
+    <t>WEB - 3B</t>
+  </si>
+  <si>
+    <t>WEB - 3C</t>
+  </si>
+  <si>
+    <t>WEB - 4</t>
   </si>
 </sst>
 </file>
@@ -301,12 +352,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,29 +397,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,15 +412,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,16 +441,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -438,15 +496,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,13 +520,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,22 +534,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,187 +561,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,17 +807,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,16 +826,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,6 +864,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -840,175 +904,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1031,6 +1075,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1380,636 +1427,636 @@
   <sheetPr/>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.4285714285714" style="9"/>
-    <col min="2" max="2" width="33.8571428571429" style="9" customWidth="1"/>
-    <col min="3" max="3" width="54.7142857142857" style="9" customWidth="1"/>
-    <col min="4" max="4" width="63.5714285714286" style="9" customWidth="1"/>
-    <col min="5" max="5" width="23.5714285714286" style="9" customWidth="1"/>
-    <col min="6" max="6" width="11.4285714285714" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.4285714285714" style="9"/>
-    <col min="8" max="8" width="11.2857142857143" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="11.4285714285714" style="9"/>
+    <col min="1" max="1" width="11.4285714285714" style="10"/>
+    <col min="2" max="2" width="33.8571428571429" style="10" customWidth="1"/>
+    <col min="3" max="3" width="54.7142857142857" style="10" customWidth="1"/>
+    <col min="4" max="4" width="63.5714285714286" style="10" customWidth="1"/>
+    <col min="5" max="5" width="23.5714285714286" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11.4285714285714" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.4285714285714" style="10"/>
+    <col min="8" max="8" width="11.2857142857143" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="11.4285714285714" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="10">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="10">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="10">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="10">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="10">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="10">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="10">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="10">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="10">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="10">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="10">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="10">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="10">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="10">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="10">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="10">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="10">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="10">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="10">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="10">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="10">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="10">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="10">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="10">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="10">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="10">
+      <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="10">
+      <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="10">
+      <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="10">
+      <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="10">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="10">
+      <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="10">
+      <c r="A40" s="11">
         <v>39</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="10">
+      <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="10">
+      <c r="A42" s="11">
         <v>41</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="10">
+      <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="10">
+      <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="10">
+      <c r="A45" s="11">
         <v>44</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="10">
+      <c r="A46" s="11">
         <v>45</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="10">
+      <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="10">
+      <c r="A48" s="11">
         <v>47</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="10">
+      <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="10">
+      <c r="A50" s="11">
         <v>49</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
@@ -2022,6 +2069,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B50">
       <formula1>validaciones!$A$1:$A$2</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C50">
       <formula1>validaciones!$B$1:$B$8</formula1>
     </dataValidation>
@@ -2030,9 +2080,6 @@
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR DE FECHA" error="Recuerda que solo puedes ingresar fechas en formato de fecha. Ejemplo:&#10;&#10;01/01/2022 o 01-01-2022" promptTitle="Fecha en Formato Fecha" prompt="Solo puedes ingresar fechas en formato de fecha. Ejemplo:&#10;&#10;01/01/2022 o 01-01-2022" sqref="G$1:G$1048576">
       <formula1>44562</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
-      <formula1>"0,1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2044,10 +2091,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2511,13 +2558,115 @@
       </c>
       <c r="E63" s="8"/>
     </row>
+    <row r="64" spans="4:5">
+      <c r="D64" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="4:5">
+      <c r="D65" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="4:5">
+      <c r="D66" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="4:5">
+      <c r="D67" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="4:5">
+      <c r="D68" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="4:5">
+      <c r="D69" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="4:5">
+      <c r="D70" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="4:5">
+      <c r="D71" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="4:5">
+      <c r="D72" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" spans="4:5">
+      <c r="D73" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="4:5">
+      <c r="D74" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="4:5">
+      <c r="D75" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" spans="4:5">
+      <c r="D76" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" spans="4:5">
+      <c r="D77" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" spans="4:5">
+      <c r="D78" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" spans="4:5">
+      <c r="D79" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" spans="4:5">
+      <c r="D80" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E80" s="8"/>
+    </row>
   </sheetData>
   <sortState ref="H1:H67">
     <sortCondition ref="H29:H67"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="E1:E51"/>
-    <mergeCell ref="E52:E63"/>
+    <mergeCell ref="E52:E80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/src/assets/files/Plantilla para el cargue de asistencias.xlsx
+++ b/src/assets/files/Plantilla para el cargue de asistencias.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="13095"/>
+    <workbookView windowHeight="18480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>#</t>
   </si>
@@ -68,7 +68,7 @@
     <t>A CONTABLE</t>
   </si>
   <si>
-    <t>Institucion Educativa Distrital De Barranquilla Codeba</t>
+    <t>Institucion Educativa Distrital Codeba</t>
   </si>
   <si>
     <t>Tecnica Profesional En Procesos Logísticos Y De Comercio Exterior (Pr)</t>
@@ -77,7 +77,7 @@
     <t>A LOGIST</t>
   </si>
   <si>
-    <t>Institucion Educativa Distrital De Barranquilla Maria Cano</t>
+    <t>Institucion Educativa Distrital Maria Cano</t>
   </si>
   <si>
     <t>Tecnica Profesional En Procesos Turisticos Y Hoteleros (Pr)</t>
@@ -86,49 +86,46 @@
     <t>A TURISMO</t>
   </si>
   <si>
-    <t>Institucion Educativa Distrital De Barranquilla Rodolfo Llinas</t>
-  </si>
-  <si>
-    <t>Tecnica Profesional De Procesos Administrativos En Salud</t>
+    <t>Institucion Educativa Distrital Rodolfo Llinas</t>
+  </si>
+  <si>
+    <t>Tecnica Profesional de Procesos Administrativos en Salud</t>
   </si>
   <si>
     <t>B ADM</t>
   </si>
   <si>
-    <t>Institucion Educativa Distrital De Barranquilla San Gabriel</t>
-  </si>
-  <si>
-    <t>Tecnica Profesional De Programacion Web</t>
+    <t>Institucion Educativa Distrital San Gabriel</t>
+  </si>
+  <si>
+    <t>Tecnica Profesional de Programacion Web</t>
   </si>
   <si>
     <t>B CONTABLE</t>
   </si>
   <si>
-    <t>Institucion Educativa Distrital San Gabriel</t>
-  </si>
-  <si>
-    <t>Tecnica Profesional En Instalacion Y Configuración De Redes</t>
+    <t>Institucion Educativa Distrital Sofia Camargo De Lleras</t>
+  </si>
+  <si>
+    <t>Tecnica Profesional en Instalacion y Configuración de Redes</t>
   </si>
   <si>
     <t>B LOGIST</t>
   </si>
   <si>
-    <t>Institucion Educativa Distrital Sofia Camargo De Lleras</t>
-  </si>
-  <si>
-    <t>Tecnica Profesional En Procesos De Marketing Digital</t>
+    <t>Tecnica Profesional en Procesos de Marketing Digital</t>
   </si>
   <si>
     <t>B TURISMO</t>
   </si>
   <si>
-    <t>Tecnica Profesional En Produccion Publicitaria Digital</t>
+    <t>Tecnica Profesional en Produccion Publicitaria Digital</t>
   </si>
   <si>
     <t>C LOGIST</t>
   </si>
   <si>
-    <t>Tecnica Profesional En Seguridad Y Salud En El Trabajo</t>
+    <t>Tecnica Profesional en Seguridad y Salud en el Trabajo</t>
   </si>
   <si>
     <t>UB-0</t>
@@ -352,18 +349,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -403,8 +406,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -425,9 +436,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,13 +467,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -456,11 +475,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -480,23 +506,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,9 +529,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,21 +542,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -561,187 +564,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,22 +823,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,7 +847,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,209 +907,195 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1427,636 +1431,636 @@
   <sheetPr/>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.4285714285714" style="10"/>
-    <col min="2" max="2" width="33.8571428571429" style="10" customWidth="1"/>
-    <col min="3" max="3" width="54.7142857142857" style="10" customWidth="1"/>
-    <col min="4" max="4" width="63.5714285714286" style="10" customWidth="1"/>
-    <col min="5" max="5" width="23.5714285714286" style="10" customWidth="1"/>
-    <col min="6" max="6" width="11.4285714285714" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.4285714285714" style="10"/>
-    <col min="8" max="8" width="11.2857142857143" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="11.4285714285714" style="10"/>
+    <col min="1" max="1" width="11.4285714285714" style="11"/>
+    <col min="2" max="2" width="33.8571428571429" style="11" customWidth="1"/>
+    <col min="3" max="3" width="54.7142857142857" style="11" customWidth="1"/>
+    <col min="4" max="4" width="63.5714285714286" style="11" customWidth="1"/>
+    <col min="5" max="5" width="23.5714285714286" style="11" customWidth="1"/>
+    <col min="6" max="6" width="11.4285714285714" style="11" customWidth="1"/>
+    <col min="7" max="7" width="11.4285714285714" style="11"/>
+    <col min="8" max="8" width="11.2857142857143" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="11.4285714285714" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="11">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="11">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="11">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="11">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="11">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="11">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="11">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="11">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="11">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="11">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="11">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="11">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="11">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="11">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="11">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="11">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="11">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="11">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="11">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="11">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="11">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="11">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="11">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="11">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="11">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="11">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="11">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="11">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="11">
+      <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="11">
+      <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="11">
+      <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="11">
+      <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="11">
+      <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="11">
+      <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="11">
+      <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="11">
+      <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="11">
+      <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="11">
+      <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="11">
+      <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="11">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="11">
+      <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="11">
+      <c r="A46" s="12">
         <v>45</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="11">
+      <c r="A47" s="12">
         <v>46</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="11">
+      <c r="A48" s="12">
         <v>47</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="11">
+      <c r="A49" s="12">
         <v>48</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="11">
+      <c r="A50" s="12">
         <v>49</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
@@ -2069,9 +2073,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B50">
       <formula1>validaciones!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C50">
       <formula1>validaciones!$B$1:$B$8</formula1>
     </dataValidation>
@@ -2080,6 +2081,9 @@
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR DE FECHA" error="Recuerda que solo puedes ingresar fechas en formato de fecha. Ejemplo:&#10;&#10;01/01/2022 o 01-01-2022" promptTitle="Fecha en Formato Fecha" prompt="Solo puedes ingresar fechas en formato de fecha. Ejemplo:&#10;&#10;01/01/2022 o 01-01-2022" sqref="G$1:G$1048576">
       <formula1>44562</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
+      <formula1>"0,1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2093,8 +2097,8 @@
   <sheetPr/>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2110,16 +2114,16 @@
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2127,538 +2131,536 @@
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="B8"/>
+      <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="4:5">
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="4:5">
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="4:5">
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="4:5">
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="4:5">
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="4:5">
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="4:5">
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="4:5">
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="4:5">
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="4:5">
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="4:5">
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="4:5">
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="4:5">
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="4:5">
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="4:5">
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="4:5">
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="4:5">
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="4:5">
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="4:5">
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="4:5">
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="4:5">
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="4:5">
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="4:5">
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="4:5">
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="4:5">
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="4:5">
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="4:5">
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="4:5">
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="4:5">
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="D44" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="4:5">
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="4:5">
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="4:5">
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="4:5">
+      <c r="D47" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="4:5">
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="D48" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="4:5">
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="4:5">
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="4:5">
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="4:5">
+      <c r="D51" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="4:5">
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="4:5">
-      <c r="D52" s="7" t="s">
+      <c r="E52" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E52" s="8" t="s">
+    </row>
+    <row r="53" spans="4:5">
+      <c r="D53" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="53" spans="4:5">
-      <c r="D53" s="7" t="s">
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="4:5">
+      <c r="D54" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54" spans="4:5">
-      <c r="D54" s="7" t="s">
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" spans="4:5">
-      <c r="D55" s="7" t="s">
+      <c r="E55" s="9"/>
+    </row>
+    <row r="56" spans="4:5">
+      <c r="D56" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E55" s="8"/>
-    </row>
-    <row r="56" spans="4:5">
-      <c r="D56" s="7" t="s">
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="4:5">
+      <c r="D57" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" spans="4:5">
-      <c r="D57" s="7" t="s">
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="4:5">
+      <c r="D58" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E57" s="8"/>
-    </row>
-    <row r="58" spans="4:5">
-      <c r="D58" s="7" t="s">
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="4:5">
+      <c r="D59" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" spans="4:5">
-      <c r="D59" s="7" t="s">
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="4:5">
+      <c r="D60" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" spans="4:5">
-      <c r="D60" s="7" t="s">
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="4:5">
+      <c r="D61" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E60" s="8"/>
-    </row>
-    <row r="61" spans="4:5">
-      <c r="D61" s="7" t="s">
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="D62" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E61" s="8"/>
-    </row>
-    <row r="62" spans="4:5">
-      <c r="D62" s="7" t="s">
+      <c r="E62" s="9"/>
+    </row>
+    <row r="63" spans="4:5">
+      <c r="D63" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E62" s="8"/>
-    </row>
-    <row r="63" spans="4:5">
-      <c r="D63" s="7" t="s">
+      <c r="E63" s="9"/>
+    </row>
+    <row r="64" spans="4:5">
+      <c r="D64" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E63" s="8"/>
-    </row>
-    <row r="64" spans="4:5">
-      <c r="D64" s="9" t="s">
+      <c r="E64" s="9"/>
+    </row>
+    <row r="65" spans="4:5">
+      <c r="D65" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E64" s="8"/>
-    </row>
-    <row r="65" spans="4:5">
-      <c r="D65" s="9" t="s">
+      <c r="E65" s="9"/>
+    </row>
+    <row r="66" spans="4:5">
+      <c r="D66" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E65" s="8"/>
-    </row>
-    <row r="66" spans="4:5">
-      <c r="D66" s="9" t="s">
+      <c r="E66" s="9"/>
+    </row>
+    <row r="67" spans="4:5">
+      <c r="D67" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E66" s="8"/>
-    </row>
-    <row r="67" spans="4:5">
-      <c r="D67" s="9" t="s">
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="4:5">
+      <c r="D68" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E67" s="8"/>
-    </row>
-    <row r="68" spans="4:5">
-      <c r="D68" s="9" t="s">
+      <c r="E68" s="9"/>
+    </row>
+    <row r="69" spans="4:5">
+      <c r="D69" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E68" s="8"/>
-    </row>
-    <row r="69" spans="4:5">
-      <c r="D69" s="9" t="s">
+      <c r="E69" s="9"/>
+    </row>
+    <row r="70" spans="4:5">
+      <c r="D70" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="8"/>
-    </row>
-    <row r="70" spans="4:5">
-      <c r="D70" s="9" t="s">
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" spans="4:5">
+      <c r="D71" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E70" s="8"/>
-    </row>
-    <row r="71" spans="4:5">
-      <c r="D71" s="9" t="s">
+      <c r="E71" s="9"/>
+    </row>
+    <row r="72" spans="4:5">
+      <c r="D72" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E71" s="8"/>
-    </row>
-    <row r="72" spans="4:5">
-      <c r="D72" s="9" t="s">
+      <c r="E72" s="9"/>
+    </row>
+    <row r="73" spans="4:5">
+      <c r="D73" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E72" s="8"/>
-    </row>
-    <row r="73" spans="4:5">
-      <c r="D73" s="9" t="s">
+      <c r="E73" s="9"/>
+    </row>
+    <row r="74" spans="4:5">
+      <c r="D74" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E73" s="8"/>
-    </row>
-    <row r="74" spans="4:5">
-      <c r="D74" s="9" t="s">
+      <c r="E74" s="9"/>
+    </row>
+    <row r="75" spans="4:5">
+      <c r="D75" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E74" s="8"/>
-    </row>
-    <row r="75" spans="4:5">
-      <c r="D75" s="9" t="s">
+      <c r="E75" s="9"/>
+    </row>
+    <row r="76" spans="4:5">
+      <c r="D76" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E75" s="8"/>
-    </row>
-    <row r="76" spans="4:5">
-      <c r="D76" s="9" t="s">
+      <c r="E76" s="9"/>
+    </row>
+    <row r="77" spans="4:5">
+      <c r="D77" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E76" s="8"/>
-    </row>
-    <row r="77" spans="4:5">
-      <c r="D77" s="9" t="s">
+      <c r="E77" s="9"/>
+    </row>
+    <row r="78" spans="4:5">
+      <c r="D78" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E77" s="8"/>
-    </row>
-    <row r="78" spans="4:5">
-      <c r="D78" s="9" t="s">
+      <c r="E78" s="9"/>
+    </row>
+    <row r="79" spans="4:5">
+      <c r="D79" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E78" s="8"/>
-    </row>
-    <row r="79" spans="4:5">
-      <c r="D79" s="9" t="s">
+      <c r="E79" s="9"/>
+    </row>
+    <row r="80" spans="4:5">
+      <c r="D80" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E79" s="8"/>
-    </row>
-    <row r="80" spans="4:5">
-      <c r="D80" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E80" s="8"/>
+      <c r="E80" s="9"/>
     </row>
   </sheetData>
   <sortState ref="H1:H67">
